--- a/Supports files/resources_type.xlsx
+++ b/Supports files/resources_type.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2281107E-8963-4B64-89FA-56F9CAAC4AFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A4D0BF-5574-47C3-BEC5-0E82754A9DE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" tabRatio="634" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="634" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="14" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>si</t>
   </si>
@@ -56,9 +56,6 @@
     <t>News Papers</t>
   </si>
   <si>
-    <t>Journals</t>
-  </si>
-  <si>
     <t>Scholarly</t>
   </si>
   <si>
@@ -96,6 +93,48 @@
   </si>
   <si>
     <t>ඉ-ප්‍රකාශන</t>
+  </si>
+  <si>
+    <t>නිබන්ධන</t>
+  </si>
+  <si>
+    <t>වාර්ථා</t>
+  </si>
+  <si>
+    <t>දර්ශක</t>
+  </si>
+  <si>
+    <t>புத்தகங்கள்</t>
+  </si>
+  <si>
+    <t>இதழ்</t>
+  </si>
+  <si>
+    <t>அறிவார்ந்த</t>
+  </si>
+  <si>
+    <t>ஆவணங்கள்</t>
+  </si>
+  <si>
+    <t>செய்தி ஆவணங்கள்</t>
+  </si>
+  <si>
+    <t>குறுந்தகடுகள் / டிவிடிகள்</t>
+  </si>
+  <si>
+    <t>நாடாக்கள்</t>
+  </si>
+  <si>
+    <t>புகைப்படங்கள்</t>
+  </si>
+  <si>
+    <t>ஸ்லைடுகள்</t>
+  </si>
+  <si>
+    <t>மின் புத்தகங்கள்</t>
+  </si>
+  <si>
+    <t>மின்-பப்ஸ்</t>
   </si>
 </sst>
 </file>
@@ -514,17 +553,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985DC7FA-FF2D-4D74-9933-E899409665F3}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="3" width="12.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -556,6 +595,9 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
@@ -570,6 +612,9 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
@@ -581,6 +626,12 @@
       <c r="B4" s="2">
         <v>1</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
@@ -592,6 +643,12 @@
       <c r="B5" s="2">
         <v>1</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
@@ -603,8 +660,14 @@
       <c r="B6" s="2">
         <v>1</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -612,13 +675,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -629,7 +695,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>15</v>
@@ -645,6 +714,9 @@
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
@@ -657,7 +729,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
@@ -668,7 +743,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
@@ -684,6 +765,9 @@
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
@@ -696,21 +780,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Supports files/resources_type.xlsx
+++ b/Supports files/resources_type.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20368"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2281107E-8963-4B64-89FA-56F9CAAC4AFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10224000-62A1-471C-B373-C35A3F77F63A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" tabRatio="634" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>si</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>ඉ-ප්‍රකාශන</t>
+  </si>
+  <si>
+    <t>වාර්ථා</t>
+  </si>
+  <si>
+    <t>දර්ශක</t>
   </si>
 </sst>
 </file>
@@ -517,7 +523,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,6 +562,9 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
@@ -570,6 +579,9 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
@@ -581,6 +593,12 @@
       <c r="B4" s="2">
         <v>1</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
@@ -592,6 +610,12 @@
       <c r="B5" s="2">
         <v>1</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
@@ -603,6 +627,12 @@
       <c r="B6" s="2">
         <v>1</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
@@ -617,6 +647,9 @@
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
@@ -631,6 +664,9 @@
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
@@ -645,6 +681,9 @@
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
@@ -659,6 +698,9 @@
       <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
@@ -670,6 +712,12 @@
       <c r="B11" s="2">
         <v>2</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
@@ -684,6 +732,9 @@
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
@@ -698,6 +749,9 @@
       <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
@@ -708,6 +762,12 @@
       </c>
       <c r="B14" s="2">
         <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>

--- a/Supports files/resources_type.xlsx
+++ b/Supports files/resources_type.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20368"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10224000-62A1-471C-B373-C35A3F77F63A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4616F05A-C590-443C-AC41-E3988707BC88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" tabRatio="634" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>si</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>දර්ශක</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>type_default.png</t>
   </si>
 </sst>
 </file>
@@ -520,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985DC7FA-FF2D-4D74-9933-E899409665F3}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F2" sqref="F2:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,10 +538,11 @@
     <col min="2" max="3" width="12.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -551,8 +558,11 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -568,8 +578,11 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -585,8 +598,11 @@
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -602,8 +618,11 @@
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -619,8 +638,11 @@
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -636,8 +658,11 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -653,8 +678,11 @@
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -670,8 +698,11 @@
       <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -687,8 +718,11 @@
       <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -704,8 +738,11 @@
       <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -721,8 +758,11 @@
       <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -738,8 +778,11 @@
       <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -755,8 +798,11 @@
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -771,6 +817,9 @@
       </c>
       <c r="E14" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
